--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H2">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="N2">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="O2">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="P2">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="Q2">
-        <v>18.042281549621</v>
+        <v>14.78350460185589</v>
       </c>
       <c r="R2">
-        <v>162.380533946589</v>
+        <v>133.051541416703</v>
       </c>
       <c r="S2">
-        <v>0.5553354472874787</v>
+        <v>0.6070918308341042</v>
       </c>
       <c r="T2">
-        <v>0.5553354472874786</v>
+        <v>0.6070918308341043</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H3">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>57.352385</v>
       </c>
       <c r="O3">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="P3">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="Q3">
-        <v>4.044241663198334</v>
+        <v>2.760058038176112</v>
       </c>
       <c r="R3">
-        <v>36.398174968785</v>
+        <v>24.840522343585</v>
       </c>
       <c r="S3">
-        <v>0.1244804182217232</v>
+        <v>0.1133431302476389</v>
       </c>
       <c r="T3">
-        <v>0.1244804182217232</v>
+        <v>0.1133431302476389</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H4">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="N4">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="O4">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="P4">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="Q4">
-        <v>0.6684504415400001</v>
+        <v>0.3754229784832223</v>
       </c>
       <c r="R4">
-        <v>6.016053973860001</v>
+        <v>3.378806806349</v>
       </c>
       <c r="S4">
-        <v>0.02057468308102787</v>
+        <v>0.01541692781804659</v>
       </c>
       <c r="T4">
-        <v>0.02057468308102787</v>
+        <v>0.0154169278180466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H5">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="N5">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="O5">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="P5">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="Q5">
-        <v>0.1214467351673333</v>
+        <v>0.04933421438400001</v>
       </c>
       <c r="R5">
-        <v>1.093020616506</v>
+        <v>0.444007929456</v>
       </c>
       <c r="S5">
-        <v>0.003738090263710121</v>
+        <v>0.002025933588804434</v>
       </c>
       <c r="T5">
-        <v>0.003738090263710121</v>
+        <v>0.002025933588804434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H6">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>85.28734300000001</v>
+        <v>102.3975143333333</v>
       </c>
       <c r="N6">
-        <v>255.862029</v>
+        <v>307.192543</v>
       </c>
       <c r="O6">
-        <v>0.7886846474407839</v>
+        <v>0.822753865655704</v>
       </c>
       <c r="P6">
-        <v>0.7886846474407838</v>
+        <v>0.8227538656557041</v>
       </c>
       <c r="Q6">
-        <v>7.581277206613001</v>
+        <v>5.251661317613666</v>
       </c>
       <c r="R6">
-        <v>68.231494859517</v>
+        <v>47.264951858523</v>
       </c>
       <c r="S6">
-        <v>0.2333492001533053</v>
+        <v>0.2156620348215997</v>
       </c>
       <c r="T6">
-        <v>0.2333492001533052</v>
+        <v>0.2156620348215998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H7">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>57.352385</v>
       </c>
       <c r="O7">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="P7">
-        <v>0.1767864724609571</v>
+        <v>0.1536069072592176</v>
       </c>
       <c r="Q7">
-        <v>1.699370285011667</v>
+        <v>0.9804772564983334</v>
       </c>
       <c r="R7">
-        <v>15.294332565105</v>
+        <v>8.824295308485</v>
       </c>
       <c r="S7">
-        <v>0.05230605423923384</v>
+        <v>0.04026377701157868</v>
       </c>
       <c r="T7">
-        <v>0.05230605423923383</v>
+        <v>0.04026377701157869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H8">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.15982</v>
+        <v>2.600356333333333</v>
       </c>
       <c r="N8">
-        <v>9.479460000000001</v>
+        <v>7.801069</v>
       </c>
       <c r="O8">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="P8">
-        <v>0.02922006284890758</v>
+        <v>0.02089360507685526</v>
       </c>
       <c r="Q8">
-        <v>0.28087955962</v>
+        <v>0.1333644752676667</v>
       </c>
       <c r="R8">
-        <v>2.52791603658</v>
+        <v>1.200280277409</v>
       </c>
       <c r="S8">
-        <v>0.008645379767879708</v>
+        <v>0.005476677258808662</v>
       </c>
       <c r="T8">
-        <v>0.008645379767879708</v>
+        <v>0.005476677258808665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H9">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5740886666666667</v>
+        <v>0.341712</v>
       </c>
       <c r="N9">
-        <v>1.722266</v>
+        <v>1.025136</v>
       </c>
       <c r="O9">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223115</v>
       </c>
       <c r="P9">
-        <v>0.005308817249351404</v>
+        <v>0.002745622008223116</v>
       </c>
       <c r="Q9">
-        <v>0.05103131566866666</v>
+        <v>0.017525383344</v>
       </c>
       <c r="R9">
-        <v>0.459281841018</v>
+        <v>0.157728450096</v>
       </c>
       <c r="S9">
-        <v>0.001570726985641283</v>
+        <v>0.0007196884194186819</v>
       </c>
       <c r="T9">
-        <v>0.001570726985641283</v>
+        <v>0.0007196884194186821</v>
       </c>
     </row>
   </sheetData>
